--- a/Sample Columns.xlsx
+++ b/Sample Columns.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
